--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{31071763-4823-4A79-8BA5-DE1676CF882D}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{96402E24-D98C-473B-A95A-937EF7927537}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Company</t>
   </si>
@@ -34,36 +34,15 @@
     <t>JobTitle</t>
   </si>
   <si>
-    <t>CallBack</t>
-  </si>
-  <si>
     <t>Interview</t>
   </si>
   <si>
-    <t>Interview2</t>
-  </si>
-  <si>
     <t>InterviewDate</t>
   </si>
   <si>
-    <t>Interview2Date</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>Systems Engineering</t>
-  </si>
-  <si>
-    <t>Test Engineering</t>
-  </si>
-  <si>
-    <t>Data Engineering</t>
-  </si>
-  <si>
     <t>Data Science</t>
   </si>
   <si>
@@ -76,18 +55,97 @@
     <t>Data Scientist</t>
   </si>
   <si>
-    <t>Acceptance</t>
-  </si>
-  <si>
     <t>JobType(factor)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source(factor)</t>
+  </si>
+  <si>
+    <t>indeed.com</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>project management</t>
+  </si>
+  <si>
+    <t>systems engineering</t>
+  </si>
+  <si>
+    <t>test engineering</t>
+  </si>
+  <si>
+    <t>data engineering</t>
+  </si>
+  <si>
+    <t>data science</t>
+  </si>
+  <si>
+    <t>CallDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status(factor)</t>
+  </si>
+  <si>
+    <t>offer made</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>no status</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Industry(factor)</t>
+  </si>
+  <si>
+    <t>Call(factor)</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Interview(factor)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CallFromEmployer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,9 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,110 +462,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43620</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43620</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:B11">
+    <sortCondition ref="B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{96402E24-D98C-473B-A95A-937EF7927537}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{396376A8-4AE7-443F-81A5-7B4428FEE16B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Company</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>CallFromEmployer</t>
+  </si>
+  <si>
+    <t>monster.com</t>
+  </si>
+  <si>
+    <t>dice.com</t>
+  </si>
+  <si>
+    <t>ziprecruiter.com</t>
   </si>
 </sst>
 </file>
@@ -465,13 +474,13 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -603,6 +612,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
@@ -611,6 +623,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
@@ -619,6 +634,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>

--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{396376A8-4AE7-443F-81A5-7B4428FEE16B}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{106B6BA9-3A21-4D17-94CF-3C40BB418CA2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Company</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>ziprecruiter.com</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>jobfair</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +602,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -613,7 +619,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -624,7 +630,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -635,15 +641,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:B11">
-    <sortCondition ref="B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:B13">
+    <sortCondition ref="B12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{106B6BA9-3A21-4D17-94CF-3C40BB418CA2}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E4729E4A-A65A-41CC-888E-DB4571299A58}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Company</t>
   </si>
@@ -97,30 +97,15 @@
     <t>offer made</t>
   </si>
   <si>
-    <t>rejected</t>
-  </si>
-  <si>
-    <t>no status</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>Industry(factor)</t>
   </si>
   <si>
-    <t>Call(factor)</t>
-  </si>
-  <si>
     <t>call</t>
   </si>
   <si>
-    <t>Interview(factor)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>CallFromEmployer</t>
   </si>
   <si>
@@ -137,6 +122,27 @@
   </si>
   <si>
     <t>jobfair</t>
+  </si>
+  <si>
+    <t>Call(binary)</t>
+  </si>
+  <si>
+    <t>Interview(binary)</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>no offer made</t>
+  </si>
+  <si>
+    <t>no call</t>
+  </si>
+  <si>
+    <t>passed on interview</t>
+  </si>
+  <si>
+    <t>no interview</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>21</v>
@@ -534,7 +540,7 @@
         <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -568,16 +574,16 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>23</v>
@@ -591,41 +597,41 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
-        <v>24</v>
+      <c r="I11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -635,13 +641,10 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -649,17 +652,17 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:B13">
-    <sortCondition ref="B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
+    <sortCondition ref="B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E4729E4A-A65A-41CC-888E-DB4571299A58}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{43DD5839-27A1-4561-98E1-425509255D4C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>Company</t>
   </si>
@@ -124,12 +125,6 @@
     <t>jobfair</t>
   </si>
   <si>
-    <t>Call(binary)</t>
-  </si>
-  <si>
-    <t>Interview(binary)</t>
-  </si>
-  <si>
     <t>interview</t>
   </si>
   <si>
@@ -143,13 +138,190 @@
   </si>
   <si>
     <t>no interview</t>
+  </si>
+  <si>
+    <t>testx</t>
+  </si>
+  <si>
+    <t>xyz.1</t>
+  </si>
+  <si>
+    <t>xyz.3</t>
+  </si>
+  <si>
+    <t>xyz.5</t>
+  </si>
+  <si>
+    <t>xyz.2</t>
+  </si>
+  <si>
+    <t>xyz.4</t>
+  </si>
+  <si>
+    <t>xyz.6</t>
+  </si>
+  <si>
+    <t>xyz.7</t>
+  </si>
+  <si>
+    <t>xyz.8</t>
+  </si>
+  <si>
+    <t>xyz.9</t>
+  </si>
+  <si>
+    <t>xyz.10</t>
+  </si>
+  <si>
+    <t>xyz.11</t>
+  </si>
+  <si>
+    <t>xyz.12</t>
+  </si>
+  <si>
+    <t>xyz.13</t>
+  </si>
+  <si>
+    <t>xyz.14</t>
+  </si>
+  <si>
+    <t>xyz.15</t>
+  </si>
+  <si>
+    <t>xyz.16</t>
+  </si>
+  <si>
+    <t>xyz.17</t>
+  </si>
+  <si>
+    <t>Date(date)</t>
+  </si>
+  <si>
+    <t>ind.1</t>
+  </si>
+  <si>
+    <t>ind.3</t>
+  </si>
+  <si>
+    <t>ind.5</t>
+  </si>
+  <si>
+    <t>ind.2</t>
+  </si>
+  <si>
+    <t>ind.4</t>
+  </si>
+  <si>
+    <t>title.1</t>
+  </si>
+  <si>
+    <t>title.2</t>
+  </si>
+  <si>
+    <t>title.3</t>
+  </si>
+  <si>
+    <t>title.4</t>
+  </si>
+  <si>
+    <t>title.5</t>
+  </si>
+  <si>
+    <t>title.6</t>
+  </si>
+  <si>
+    <t>title.7</t>
+  </si>
+  <si>
+    <t>title.8</t>
+  </si>
+  <si>
+    <t>title.9</t>
+  </si>
+  <si>
+    <t>title.10</t>
+  </si>
+  <si>
+    <t>title.11</t>
+  </si>
+  <si>
+    <t>title.12</t>
+  </si>
+  <si>
+    <t>title.13</t>
+  </si>
+  <si>
+    <t>title.14</t>
+  </si>
+  <si>
+    <t>title.15</t>
+  </si>
+  <si>
+    <t>title.16</t>
+  </si>
+  <si>
+    <t>title.17</t>
+  </si>
+  <si>
+    <t>Interview(factor)</t>
+  </si>
+  <si>
+    <t>Call(factor)</t>
+  </si>
+  <si>
+    <t>src.1</t>
+  </si>
+  <si>
+    <t>src.2</t>
+  </si>
+  <si>
+    <t>src.3</t>
+  </si>
+  <si>
+    <t>src.4</t>
+  </si>
+  <si>
+    <t>src.5</t>
+  </si>
+  <si>
+    <t>Company(character)</t>
+  </si>
+  <si>
+    <t>type.1</t>
+  </si>
+  <si>
+    <t>type.2</t>
+  </si>
+  <si>
+    <t>type.3</t>
+  </si>
+  <si>
+    <t>type.4</t>
+  </si>
+  <si>
+    <t>type.5</t>
+  </si>
+  <si>
+    <t>tst.nocall</t>
+  </si>
+  <si>
+    <t>tst.passedoninterview</t>
+  </si>
+  <si>
+    <t>tst.call</t>
+  </si>
+  <si>
+    <t>tst.interview</t>
+  </si>
+  <si>
+    <t>tst.nointerview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +341,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -203,6 +381,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,25 +671,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,7 +732,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>43620</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -569,102 +757,660 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
-    <sortCondition ref="B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:B12">
+    <sortCondition ref="B11"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C298CAA-2721-4446-B09B-3233B219F044}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>408863</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="9">
+        <v>408865</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>408864</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>408865</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>408866</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>408867</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="9">
+        <v>408869</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>408868</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>408868</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>408868</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>408868</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>408868</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="9">
+        <v>408870</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>408869</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>408870</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>408870</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>408870</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>408873</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>408875</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>408876</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="254" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{43DD5839-27A1-4561-98E1-425509255D4C}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AF510FEB-30D5-4C89-BC3B-0FCC90BB41A0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Company</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>tst.nointerview</t>
+  </si>
+  <si>
+    <t>JobLocation</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
   </si>
 </sst>
 </file>
@@ -671,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,15 +691,16 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -713,25 +720,28 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43620</v>
       </c>
@@ -750,14 +760,17 @@
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -770,8 +783,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -784,8 +798,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -801,62 +816,63 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -864,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -872,17 +888,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -901,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C298CAA-2721-4446-B09B-3233B219F044}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>

--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="257" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AF510FEB-30D5-4C89-BC3B-0FCC90BB41A0}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{90842328-BED6-4FB5-B651-CB16C136E215}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>Company</t>
   </si>
@@ -140,9 +140,6 @@
     <t>no interview</t>
   </si>
   <si>
-    <t>testx</t>
-  </si>
-  <si>
     <t>xyz.1</t>
   </si>
   <si>
@@ -321,6 +318,39 @@
   </si>
   <si>
     <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Argus Technical Services</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Systems Test Engineer</t>
+  </si>
+  <si>
+    <t>Test Engineering</t>
+  </si>
+  <si>
+    <t>recruiter</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>IT Manager/Delivery Lead</t>
+  </si>
+  <si>
+    <t>Greenwood Village, CO</t>
+  </si>
+  <si>
+    <t>Corus360</t>
+  </si>
+  <si>
+    <t>Testing Manager</t>
   </si>
 </sst>
 </file>
@@ -677,21 +707,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
@@ -720,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>28</v>
@@ -761,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -771,13 +801,27 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="6">
+        <v>43636</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -786,13 +830,27 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="6">
+        <v>43636</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -800,112 +858,154 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43637</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:B12">
-    <sortCondition ref="B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
+    <sortCondition ref="B13"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -980,28 +1080,28 @@
         <v>408863</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="9">
         <v>408865</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,25 +1109,25 @@
         <v>408864</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1035,25 +1135,25 @@
         <v>408865</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1061,25 +1161,25 @@
         <v>408866</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1087,28 +1187,28 @@
         <v>408867</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="9">
         <v>408869</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1116,25 +1216,25 @@
         <v>408868</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,25 +1242,25 @@
         <v>408868</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,25 +1268,25 @@
         <v>408868</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1194,25 +1294,25 @@
         <v>408868</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1220,28 +1320,28 @@
         <v>408868</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="9">
         <v>408870</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1249,25 +1349,25 @@
         <v>408869</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,25 +1375,25 @@
         <v>408870</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1301,25 +1401,25 @@
         <v>408870</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1327,25 +1427,25 @@
         <v>408870</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1353,25 +1453,25 @@
         <v>408873</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,25 +1479,25 @@
         <v>408875</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,25 +1505,25 @@
         <v>408876</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/JobHunt2019.xlsx
+++ b/JobHunt2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{90842328-BED6-4FB5-B651-CB16C136E215}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_F25DC773A252ABEACE02EC98EB5D537C5ADE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9FED9BEB-62FA-4A71-8C77-BE0E8A5CFD93}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>Company</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Charter Communications</t>
   </si>
   <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
     <t>IT Manager/Delivery Lead</t>
   </si>
   <si>
@@ -351,6 +348,27 @@
   </si>
   <si>
     <t>Testing Manager</t>
+  </si>
+  <si>
+    <t>Randstad Technologies</t>
+  </si>
+  <si>
+    <t>Information Tech</t>
+  </si>
+  <si>
+    <t>Sr. Project Manager</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Bentley Global Resources LLC</t>
+  </si>
+  <si>
+    <t>Quality Engineer</t>
+  </si>
+  <si>
+    <t>Louisville, CO</t>
   </si>
 </sst>
 </file>
@@ -707,17 +725,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -840,16 +858,16 @@
         <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -860,20 +878,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43637</v>
+        <v>43636</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>98</v>
@@ -886,13 +906,25 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="6">
+        <v>43637</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -900,112 +932,214 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43638</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
-    <sortCondition ref="B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:B20">
+    <sortCondition ref="B19"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
